--- a/measurements/mixed_feeder_m.xlsx
+++ b/measurements/mixed_feeder_m.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harshil\Desktop\4thyear\python\final code\measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E345B16A-75F7-4A44-AE2C-83149A84FD71}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5E970E-D88A-4E9D-AC22-648B69A1B339}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="10">
   <si>
     <t>name</t>
   </si>
@@ -459,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,7 +518,7 @@
         <v>50</v>
       </c>
       <c r="E3">
-        <v>7.0000000000000007E-2</v>
+        <v>-1.7500000000000002E-2</v>
       </c>
       <c r="F3">
         <v>1E-3</v>
@@ -535,7 +535,7 @@
         <v>51</v>
       </c>
       <c r="E4">
-        <v>0.06</v>
+        <v>-1.4999999999999999E-2</v>
       </c>
       <c r="F4">
         <v>1E-3</v>
@@ -552,7 +552,7 @@
         <v>52</v>
       </c>
       <c r="E5">
-        <v>0.08</v>
+        <v>-0.02</v>
       </c>
       <c r="F5">
         <v>1E-3</v>
@@ -569,7 +569,7 @@
         <v>53</v>
       </c>
       <c r="E6">
-        <v>0.08</v>
+        <v>-0.02</v>
       </c>
       <c r="F6">
         <v>1E-3</v>
@@ -586,7 +586,7 @@
         <v>54</v>
       </c>
       <c r="E7">
-        <v>7.0000000000000007E-2</v>
+        <v>-1.7500000000000002E-2</v>
       </c>
       <c r="F7">
         <v>1E-3</v>
@@ -603,7 +603,7 @@
         <v>55</v>
       </c>
       <c r="E8">
-        <v>0.09</v>
+        <v>-2.2499999999999999E-2</v>
       </c>
       <c r="F8">
         <v>1E-3</v>
@@ -620,7 +620,7 @@
         <v>56</v>
       </c>
       <c r="E9">
-        <v>0.13</v>
+        <v>-3.2500000000000001E-2</v>
       </c>
       <c r="F9">
         <v>1E-3</v>
@@ -637,7 +637,7 @@
         <v>57</v>
       </c>
       <c r="E10">
-        <v>0.03</v>
+        <v>-7.4999999999999997E-3</v>
       </c>
       <c r="F10">
         <v>1E-3</v>
@@ -654,7 +654,7 @@
         <v>58</v>
       </c>
       <c r="E11">
-        <v>0.1</v>
+        <v>-2.5000000000000001E-2</v>
       </c>
       <c r="F11">
         <v>1E-3</v>
@@ -688,8 +688,7 @@
         <v>60</v>
       </c>
       <c r="E13">
-        <f>35*0.7/1000</f>
-        <v>2.4500000000000001E-2</v>
+        <v>-6.1250000000000002E-3</v>
       </c>
       <c r="F13">
         <v>1E-3</v>
@@ -706,8 +705,7 @@
         <v>61</v>
       </c>
       <c r="E14">
-        <f>50*0.7/1000</f>
-        <v>3.5000000000000003E-2</v>
+        <v>-8.7500000000000008E-3</v>
       </c>
       <c r="F14">
         <v>1E-3</v>
@@ -724,8 +722,7 @@
         <v>62</v>
       </c>
       <c r="E15">
-        <f>44*0.7/1000</f>
-        <v>3.0799999999999998E-2</v>
+        <v>-7.6999999999999994E-3</v>
       </c>
       <c r="F15">
         <v>1E-3</v>
@@ -742,8 +739,7 @@
         <v>63</v>
       </c>
       <c r="E16">
-        <f>35*0.7/1000</f>
-        <v>2.4500000000000001E-2</v>
+        <v>-6.1250000000000002E-3</v>
       </c>
       <c r="F16">
         <v>1E-3</v>
@@ -760,8 +756,7 @@
         <v>64</v>
       </c>
       <c r="E17">
-        <f>41*0.7/1000</f>
-        <v>2.87E-2</v>
+        <v>-7.175E-3</v>
       </c>
       <c r="F17">
         <v>1E-3</v>
@@ -778,8 +773,7 @@
         <v>65</v>
       </c>
       <c r="E18">
-        <f>36*0.7/1000</f>
-        <v>2.52E-2</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>1E-3</v>
@@ -787,38 +781,36 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="E19">
-        <f>40*0.7/1000</f>
-        <v>2.8000000000000001E-2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="E20">
-        <f>41*0.7/1000</f>
-        <v>2.87E-2</v>
+        <v>1.001206498394239</v>
       </c>
       <c r="F20">
-        <v>1E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -829,10 +821,10 @@
         <v>9</v>
       </c>
       <c r="D21">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>1.000684597441013</v>
       </c>
       <c r="F21">
         <v>4.0000000000000002E-4</v>
@@ -846,10 +838,10 @@
         <v>9</v>
       </c>
       <c r="D22">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E22">
-        <v>1.001206498394239</v>
+        <v>0.99980246998817579</v>
       </c>
       <c r="F22">
         <v>4.0000000000000002E-4</v>
@@ -863,10 +855,10 @@
         <v>9</v>
       </c>
       <c r="D23">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E23">
-        <v>1.000684597441013</v>
+        <v>0.99937002819226695</v>
       </c>
       <c r="F23">
         <v>4.0000000000000002E-4</v>
@@ -880,10 +872,10 @@
         <v>9</v>
       </c>
       <c r="D24">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E24">
-        <v>0.99980246998817579</v>
+        <v>1.000832538700575</v>
       </c>
       <c r="F24">
         <v>4.0000000000000002E-4</v>
@@ -897,10 +889,10 @@
         <v>9</v>
       </c>
       <c r="D25">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E25">
-        <v>0.99937002819226695</v>
+        <v>0.99920710609241192</v>
       </c>
       <c r="F25">
         <v>4.0000000000000002E-4</v>
@@ -914,10 +906,10 @@
         <v>9</v>
       </c>
       <c r="D26">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E26">
-        <v>1.000832538700575</v>
+        <v>0.99996011755415271</v>
       </c>
       <c r="F26">
         <v>4.0000000000000002E-4</v>
@@ -931,10 +923,10 @@
         <v>9</v>
       </c>
       <c r="D27">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E27">
-        <v>0.99920710609241192</v>
+        <v>1.000410459904272</v>
       </c>
       <c r="F27">
         <v>4.0000000000000002E-4</v>
@@ -948,10 +940,10 @@
         <v>9</v>
       </c>
       <c r="D28">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E28">
-        <v>0.99996011755415271</v>
+        <v>1.000110460370631</v>
       </c>
       <c r="F28">
         <v>4.0000000000000002E-4</v>
@@ -965,10 +957,10 @@
         <v>9</v>
       </c>
       <c r="D29">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E29">
-        <v>1.000410459904272</v>
+        <v>0.99967800514353788</v>
       </c>
       <c r="F29">
         <v>4.0000000000000002E-4</v>
@@ -982,10 +974,10 @@
         <v>9</v>
       </c>
       <c r="D30">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E30">
-        <v>1.000110460370631</v>
+        <v>1.0003586362286521</v>
       </c>
       <c r="F30">
         <v>4.0000000000000002E-4</v>
@@ -999,10 +991,10 @@
         <v>9</v>
       </c>
       <c r="D31">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E31">
-        <v>0.99967800514353788</v>
+        <v>1.0000286896843451</v>
       </c>
       <c r="F31">
         <v>4.0000000000000002E-4</v>
@@ -1016,10 +1008,10 @@
         <v>9</v>
       </c>
       <c r="D32">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E32">
-        <v>1.0003586362286521</v>
+        <v>1.0006112568763901</v>
       </c>
       <c r="F32">
         <v>4.0000000000000002E-4</v>
@@ -1033,10 +1025,10 @@
         <v>9</v>
       </c>
       <c r="D33">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E33">
-        <v>1.0000286896843451</v>
+        <v>1.000104495842717</v>
       </c>
       <c r="F33">
         <v>4.0000000000000002E-4</v>
@@ -1050,10 +1042,10 @@
         <v>9</v>
       </c>
       <c r="D34">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E34">
-        <v>1.0006112568763901</v>
+        <v>1.0002945958845451</v>
       </c>
       <c r="F34">
         <v>4.0000000000000002E-4</v>
@@ -1067,10 +1059,10 @@
         <v>9</v>
       </c>
       <c r="D35">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E35">
-        <v>1.000104495842717</v>
+        <v>1.0002140308849701</v>
       </c>
       <c r="F35">
         <v>4.0000000000000002E-4</v>
@@ -1084,85 +1076,17 @@
         <v>9</v>
       </c>
       <c r="D36">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E36">
-        <v>1.0002945958845451</v>
+        <v>1.0005748596365369</v>
       </c>
       <c r="F36">
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37">
-        <v>64</v>
-      </c>
-      <c r="E37">
-        <v>1.0002140308849701</v>
-      </c>
-      <c r="F37">
-        <v>4.0000000000000002E-4</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38">
-        <v>65</v>
-      </c>
-      <c r="E38">
-        <v>1.0005748596365369</v>
-      </c>
-      <c r="F38">
-        <v>4.0000000000000002E-4</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39">
-        <v>66</v>
-      </c>
-      <c r="E39">
-        <v>0.99982017322599503</v>
-      </c>
-      <c r="F39">
-        <v>4.0000000000000002E-4</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40">
-        <v>67</v>
-      </c>
-      <c r="E40">
-        <v>1.001107825185561</v>
-      </c>
-      <c r="F40">
-        <v>4.0000000000000002E-4</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G40">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G38">
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/measurements/mixed_feeder_m.xlsx
+++ b/measurements/mixed_feeder_m.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harshil\Desktop\4thyear\python\final code\measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5E970E-D88A-4E9D-AC22-648B69A1B339}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6D7E56-FE36-4690-B499-9AB44EFCD56D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="10">
   <si>
     <t>name</t>
   </si>
@@ -459,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,7 +518,7 @@
         <v>50</v>
       </c>
       <c r="E3">
-        <v>-1.7500000000000002E-2</v>
+        <v>-3.5000000000000003E-2</v>
       </c>
       <c r="F3">
         <v>1E-3</v>
@@ -535,7 +535,7 @@
         <v>51</v>
       </c>
       <c r="E4">
-        <v>-1.4999999999999999E-2</v>
+        <v>-0.03</v>
       </c>
       <c r="F4">
         <v>1E-3</v>
@@ -552,7 +552,7 @@
         <v>52</v>
       </c>
       <c r="E5">
-        <v>-0.02</v>
+        <v>-0.04</v>
       </c>
       <c r="F5">
         <v>1E-3</v>
@@ -569,7 +569,7 @@
         <v>53</v>
       </c>
       <c r="E6">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>1E-3</v>
@@ -586,7 +586,7 @@
         <v>54</v>
       </c>
       <c r="E7">
-        <v>-1.7500000000000002E-2</v>
+        <v>-4.4999999999999998E-2</v>
       </c>
       <c r="F7">
         <v>1E-3</v>
@@ -603,7 +603,7 @@
         <v>55</v>
       </c>
       <c r="E8">
-        <v>-2.2499999999999999E-2</v>
+        <v>-6.5000000000000002E-2</v>
       </c>
       <c r="F8">
         <v>1E-3</v>
@@ -620,7 +620,7 @@
         <v>56</v>
       </c>
       <c r="E9">
-        <v>-3.2500000000000001E-2</v>
+        <v>-1.4999999999999999E-2</v>
       </c>
       <c r="F9">
         <v>1E-3</v>
@@ -637,7 +637,7 @@
         <v>57</v>
       </c>
       <c r="E10">
-        <v>-7.4999999999999997E-3</v>
+        <v>-0.05</v>
       </c>
       <c r="F10">
         <v>1E-3</v>
@@ -654,7 +654,7 @@
         <v>58</v>
       </c>
       <c r="E11">
-        <v>-2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>1E-3</v>
@@ -671,7 +671,7 @@
         <v>59</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>-1.225E-2</v>
       </c>
       <c r="F12">
         <v>1E-3</v>
@@ -688,7 +688,7 @@
         <v>60</v>
       </c>
       <c r="E13">
-        <v>-6.1250000000000002E-3</v>
+        <v>-1.7500000000000002E-2</v>
       </c>
       <c r="F13">
         <v>1E-3</v>
@@ -705,7 +705,7 @@
         <v>61</v>
       </c>
       <c r="E14">
-        <v>-8.7500000000000008E-3</v>
+        <v>-1.5399999999999999E-2</v>
       </c>
       <c r="F14">
         <v>1E-3</v>
@@ -722,7 +722,7 @@
         <v>62</v>
       </c>
       <c r="E15">
-        <v>-7.6999999999999994E-3</v>
+        <v>-1.225E-2</v>
       </c>
       <c r="F15">
         <v>1E-3</v>
@@ -739,7 +739,7 @@
         <v>63</v>
       </c>
       <c r="E16">
-        <v>-6.1250000000000002E-3</v>
+        <v>-1.435E-2</v>
       </c>
       <c r="F16">
         <v>1E-3</v>
@@ -756,7 +756,7 @@
         <v>64</v>
       </c>
       <c r="E17">
-        <v>-7.175E-3</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>1E-3</v>
@@ -764,19 +764,19 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
@@ -787,10 +787,10 @@
         <v>9</v>
       </c>
       <c r="D19">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>1.001206498394239</v>
       </c>
       <c r="F19">
         <v>4.0000000000000002E-4</v>
@@ -804,10 +804,10 @@
         <v>9</v>
       </c>
       <c r="D20">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E20">
-        <v>1.001206498394239</v>
+        <v>1.000684597441013</v>
       </c>
       <c r="F20">
         <v>4.0000000000000002E-4</v>
@@ -821,10 +821,10 @@
         <v>9</v>
       </c>
       <c r="D21">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E21">
-        <v>1.000684597441013</v>
+        <v>0.99980246998817579</v>
       </c>
       <c r="F21">
         <v>4.0000000000000002E-4</v>
@@ -838,10 +838,10 @@
         <v>9</v>
       </c>
       <c r="D22">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E22">
-        <v>0.99980246998817579</v>
+        <v>0.99937002819226695</v>
       </c>
       <c r="F22">
         <v>4.0000000000000002E-4</v>
@@ -855,10 +855,10 @@
         <v>9</v>
       </c>
       <c r="D23">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E23">
-        <v>0.99937002819226695</v>
+        <v>1.000832538700575</v>
       </c>
       <c r="F23">
         <v>4.0000000000000002E-4</v>
@@ -872,10 +872,10 @@
         <v>9</v>
       </c>
       <c r="D24">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E24">
-        <v>1.000832538700575</v>
+        <v>0.99996011755415271</v>
       </c>
       <c r="F24">
         <v>4.0000000000000002E-4</v>
@@ -889,10 +889,10 @@
         <v>9</v>
       </c>
       <c r="D25">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E25">
-        <v>0.99920710609241192</v>
+        <v>1.000410459904272</v>
       </c>
       <c r="F25">
         <v>4.0000000000000002E-4</v>
@@ -906,10 +906,10 @@
         <v>9</v>
       </c>
       <c r="D26">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E26">
-        <v>0.99996011755415271</v>
+        <v>1.000110460370631</v>
       </c>
       <c r="F26">
         <v>4.0000000000000002E-4</v>
@@ -923,10 +923,10 @@
         <v>9</v>
       </c>
       <c r="D27">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E27">
-        <v>1.000410459904272</v>
+        <v>0.99967800514353788</v>
       </c>
       <c r="F27">
         <v>4.0000000000000002E-4</v>
@@ -940,10 +940,10 @@
         <v>9</v>
       </c>
       <c r="D28">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E28">
-        <v>1.000110460370631</v>
+        <v>1.0003586362286521</v>
       </c>
       <c r="F28">
         <v>4.0000000000000002E-4</v>
@@ -957,10 +957,10 @@
         <v>9</v>
       </c>
       <c r="D29">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E29">
-        <v>0.99967800514353788</v>
+        <v>1.0000286896843451</v>
       </c>
       <c r="F29">
         <v>4.0000000000000002E-4</v>
@@ -974,10 +974,10 @@
         <v>9</v>
       </c>
       <c r="D30">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E30">
-        <v>1.0003586362286521</v>
+        <v>1.0006112568763901</v>
       </c>
       <c r="F30">
         <v>4.0000000000000002E-4</v>
@@ -991,10 +991,10 @@
         <v>9</v>
       </c>
       <c r="D31">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E31">
-        <v>1.0000286896843451</v>
+        <v>1.000104495842717</v>
       </c>
       <c r="F31">
         <v>4.0000000000000002E-4</v>
@@ -1008,10 +1008,10 @@
         <v>9</v>
       </c>
       <c r="D32">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E32">
-        <v>1.0006112568763901</v>
+        <v>1.0002945958845451</v>
       </c>
       <c r="F32">
         <v>4.0000000000000002E-4</v>
@@ -1025,10 +1025,10 @@
         <v>9</v>
       </c>
       <c r="D33">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E33">
-        <v>1.000104495842717</v>
+        <v>1.0002140308849701</v>
       </c>
       <c r="F33">
         <v>4.0000000000000002E-4</v>
@@ -1042,51 +1042,17 @@
         <v>9</v>
       </c>
       <c r="D34">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E34">
-        <v>1.0002945958845451</v>
+        <v>1.0005748596365369</v>
       </c>
       <c r="F34">
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35">
-        <v>64</v>
-      </c>
-      <c r="E35">
-        <v>1.0002140308849701</v>
-      </c>
-      <c r="F35">
-        <v>4.0000000000000002E-4</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36">
-        <v>65</v>
-      </c>
-      <c r="E36">
-        <v>1.0005748596365369</v>
-      </c>
-      <c r="F36">
-        <v>4.0000000000000002E-4</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G38">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G37">
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/measurements/mixed_feeder_m.xlsx
+++ b/measurements/mixed_feeder_m.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harshil\Desktop\4thyear\python\final code\measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6D7E56-FE36-4690-B499-9AB44EFCD56D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED44F01-1F96-445D-958F-BB4DA1E61957}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -462,7 +462,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,7 +671,8 @@
         <v>59</v>
       </c>
       <c r="E12">
-        <v>-1.225E-2</v>
+        <f>-(18*0.0007+0.007*4)</f>
+        <v>-4.0599999999999997E-2</v>
       </c>
       <c r="F12">
         <v>1E-3</v>
@@ -688,7 +689,8 @@
         <v>60</v>
       </c>
       <c r="E13">
-        <v>-1.7500000000000002E-2</v>
+        <f>-(25*0.0007+0.007*5)</f>
+        <v>-5.2500000000000005E-2</v>
       </c>
       <c r="F13">
         <v>1E-3</v>
@@ -705,7 +707,8 @@
         <v>61</v>
       </c>
       <c r="E14">
-        <v>-1.5399999999999999E-2</v>
+        <f>-(22*0.0007+0.007*4)</f>
+        <v>-4.3400000000000001E-2</v>
       </c>
       <c r="F14">
         <v>1E-3</v>
@@ -722,7 +725,8 @@
         <v>62</v>
       </c>
       <c r="E15">
-        <v>-1.225E-2</v>
+        <f>-(18*0.0007+0.007*3)</f>
+        <v>-3.3600000000000005E-2</v>
       </c>
       <c r="F15">
         <v>1E-3</v>
@@ -739,7 +743,8 @@
         <v>63</v>
       </c>
       <c r="E16">
-        <v>-1.435E-2</v>
+        <f>-(21*0.0007+0.007*4)</f>
+        <v>-4.2700000000000002E-2</v>
       </c>
       <c r="F16">
         <v>1E-3</v>

--- a/measurements/mixed_feeder_m.xlsx
+++ b/measurements/mixed_feeder_m.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harshil\Desktop\4thyear\python\final code\measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED44F01-1F96-445D-958F-BB4DA1E61957}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7D45E0-C129-478E-989D-517F47BB7FB0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -462,7 +462,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,7 +781,7 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>4.0000000000000002E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
@@ -795,10 +795,10 @@
         <v>49</v>
       </c>
       <c r="E19">
-        <v>1.001206498394239</v>
+        <v>1.0000113983437999</v>
       </c>
       <c r="F19">
-        <v>4.0000000000000002E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -812,10 +812,10 @@
         <v>50</v>
       </c>
       <c r="E20">
-        <v>1.000684597441013</v>
+        <v>1.00005106681722</v>
       </c>
       <c r="F20">
-        <v>4.0000000000000002E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -829,10 +829,10 @@
         <v>51</v>
       </c>
       <c r="E21">
-        <v>0.99980246998817579</v>
+        <v>1.0000297117141901</v>
       </c>
       <c r="F21">
-        <v>4.0000000000000002E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -846,10 +846,10 @@
         <v>52</v>
       </c>
       <c r="E22">
-        <v>0.99937002819226695</v>
+        <v>0.99999278474748499</v>
       </c>
       <c r="F22">
-        <v>4.0000000000000002E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
@@ -863,10 +863,10 @@
         <v>53</v>
       </c>
       <c r="E23">
-        <v>1.000832538700575</v>
+        <v>1.0000356797946199</v>
       </c>
       <c r="F23">
-        <v>4.0000000000000002E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -880,10 +880,10 @@
         <v>54</v>
       </c>
       <c r="E24">
-        <v>0.99996011755415271</v>
+        <v>1.00000631868708</v>
       </c>
       <c r="F24">
-        <v>4.0000000000000002E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
@@ -897,10 +897,10 @@
         <v>55</v>
       </c>
       <c r="E25">
-        <v>1.000410459904272</v>
+        <v>1.00001949771655</v>
       </c>
       <c r="F25">
-        <v>4.0000000000000002E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
@@ -914,10 +914,10 @@
         <v>56</v>
       </c>
       <c r="E26">
-        <v>1.000110460370631</v>
+        <v>1.00006888533826</v>
       </c>
       <c r="F26">
-        <v>4.0000000000000002E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
@@ -931,10 +931,10 @@
         <v>57</v>
       </c>
       <c r="E27">
-        <v>0.99967800514353788</v>
+        <v>0.99998717243479496</v>
       </c>
       <c r="F27">
-        <v>4.0000000000000002E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
@@ -948,10 +948,10 @@
         <v>58</v>
       </c>
       <c r="E28">
-        <v>1.0003586362286521</v>
+        <v>1.0000099332788399</v>
       </c>
       <c r="F28">
-        <v>4.0000000000000002E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
@@ -965,10 +965,10 @@
         <v>59</v>
       </c>
       <c r="E29">
-        <v>1.0000286896843451</v>
+        <v>1.0000069446656199</v>
       </c>
       <c r="F29">
-        <v>4.0000000000000002E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
@@ -982,10 +982,10 @@
         <v>60</v>
       </c>
       <c r="E30">
-        <v>1.0006112568763901</v>
+        <v>0.99999013439191398</v>
       </c>
       <c r="F30">
-        <v>4.0000000000000002E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
@@ -999,10 +999,10 @@
         <v>61</v>
       </c>
       <c r="E31">
-        <v>1.000104495842717</v>
+        <v>0.99995927969589404</v>
       </c>
       <c r="F31">
-        <v>4.0000000000000002E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
@@ -1016,10 +1016,10 @@
         <v>62</v>
       </c>
       <c r="E32">
-        <v>1.0002945958845451</v>
+        <v>1.00000812338336</v>
       </c>
       <c r="F32">
-        <v>4.0000000000000002E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
@@ -1033,10 +1033,10 @@
         <v>63</v>
       </c>
       <c r="E33">
-        <v>1.0002140308849701</v>
+        <v>0.99992165241681297</v>
       </c>
       <c r="F33">
-        <v>4.0000000000000002E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -1050,10 +1050,10 @@
         <v>64</v>
       </c>
       <c r="E34">
-        <v>1.0005748596365369</v>
+        <v>0.99992653462407799</v>
       </c>
       <c r="F34">
-        <v>4.0000000000000002E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
     </row>
   </sheetData>

--- a/measurements/mixed_feeder_m.xlsx
+++ b/measurements/mixed_feeder_m.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harshil\Desktop\4thyear\python\final code\measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7D45E0-C129-478E-989D-517F47BB7FB0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5DCD92-16D7-4066-89A8-D3E5DE45711A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="11">
   <si>
     <t>name</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>bus</t>
+  </si>
+  <si>
+    <t>q</t>
   </si>
 </sst>
 </file>
@@ -459,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,7 +521,7 @@
         <v>50</v>
       </c>
       <c r="E3">
-        <v>-3.5000000000000003E-2</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="F3">
         <v>1E-3</v>
@@ -535,7 +538,7 @@
         <v>51</v>
       </c>
       <c r="E4">
-        <v>-0.03</v>
+        <v>-0.3</v>
       </c>
       <c r="F4">
         <v>1E-3</v>
@@ -552,7 +555,7 @@
         <v>52</v>
       </c>
       <c r="E5">
-        <v>-0.04</v>
+        <v>-0.23749999999999999</v>
       </c>
       <c r="F5">
         <v>1E-3</v>
@@ -586,7 +589,7 @@
         <v>54</v>
       </c>
       <c r="E7">
-        <v>-4.4999999999999998E-2</v>
+        <v>-0.22499999999999998</v>
       </c>
       <c r="F7">
         <v>1E-3</v>
@@ -603,7 +606,7 @@
         <v>55</v>
       </c>
       <c r="E8">
-        <v>-6.5000000000000002E-2</v>
+        <v>-0.32500000000000001</v>
       </c>
       <c r="F8">
         <v>1E-3</v>
@@ -620,7 +623,7 @@
         <v>56</v>
       </c>
       <c r="E9">
-        <v>-1.4999999999999999E-2</v>
+        <v>-0.24249999999999999</v>
       </c>
       <c r="F9">
         <v>1E-3</v>
@@ -637,7 +640,7 @@
         <v>57</v>
       </c>
       <c r="E10">
-        <v>-0.05</v>
+        <v>-0.25</v>
       </c>
       <c r="F10">
         <v>1E-3</v>
@@ -671,8 +674,7 @@
         <v>59</v>
       </c>
       <c r="E12">
-        <f>-(18*0.0007+0.007*4)</f>
-        <v>-4.0599999999999997E-2</v>
+        <v>-0.1477</v>
       </c>
       <c r="F12">
         <v>1E-3</v>
@@ -689,8 +691,7 @@
         <v>60</v>
       </c>
       <c r="E13">
-        <f>-(25*0.0007+0.007*5)</f>
-        <v>-5.2500000000000005E-2</v>
+        <v>-0.14910000000000001</v>
       </c>
       <c r="F13">
         <v>1E-3</v>
@@ -707,8 +708,7 @@
         <v>61</v>
       </c>
       <c r="E14">
-        <f>-(22*0.0007+0.007*4)</f>
-        <v>-4.3400000000000001E-2</v>
+        <v>-0.1288</v>
       </c>
       <c r="F14">
         <v>1E-3</v>
@@ -725,8 +725,7 @@
         <v>62</v>
       </c>
       <c r="E15">
-        <f>-(18*0.0007+0.007*3)</f>
-        <v>-3.3600000000000005E-2</v>
+        <v>-0.1162</v>
       </c>
       <c r="F15">
         <v>1E-3</v>
@@ -743,8 +742,7 @@
         <v>63</v>
       </c>
       <c r="E16">
-        <f>-(21*0.0007+0.007*4)</f>
-        <v>-4.2700000000000002E-2</v>
+        <v>-0.16870000000000002</v>
       </c>
       <c r="F16">
         <v>1E-3</v>
@@ -914,7 +912,7 @@
         <v>56</v>
       </c>
       <c r="E26">
-        <v>1.00006888533826</v>
+        <v>1.00003888533826</v>
       </c>
       <c r="F26">
         <v>4.0000000000000003E-5</v>
@@ -1054,6 +1052,278 @@
       </c>
       <c r="F34">
         <v>4.0000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35">
+        <v>62</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36">
+        <v>63</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37">
+        <v>56</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38">
+        <v>58</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39">
+        <v>50</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40">
+        <v>55</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41">
+        <v>51</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42">
+        <v>57</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43">
+        <v>59</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44">
+        <v>60</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45">
+        <v>61</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46">
+        <v>54</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47">
+        <v>64</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48">
+        <v>52</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49">
+        <v>53</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50">
+        <v>49</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1E-3</v>
       </c>
     </row>
   </sheetData>
